--- a/Documentación/Ciclo2/TSP_PlaneaciónIndividual_LukasMesa.xlsx
+++ b/Documentación/Ciclo2/TSP_PlaneaciónIndividual_LukasMesa.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PlanIndividual" sheetId="1" r:id="rId1"/>
     <sheet name="Estadisticas" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">PlanIndividual!$K$9:$O$13</definedName>
   </definedNames>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>Formato de Planeación Individual</t>
   </si>
@@ -182,6 +185,39 @@
   </si>
   <si>
     <t>Totales</t>
+  </si>
+  <si>
+    <t>Formato de Planeación y Seguimiento - Semanas</t>
+  </si>
+  <si>
+    <t>Grupo:</t>
+  </si>
+  <si>
+    <t>Lo Planeado (Estimado)</t>
+  </si>
+  <si>
+    <t>Lo real</t>
+  </si>
+  <si>
+    <t>Fecha inicio</t>
+  </si>
+  <si>
+    <t>Fecha fin</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Valor planeado</t>
+  </si>
+  <si>
+    <t>Valor planeado acumulado</t>
+  </si>
+  <si>
+    <t>Valor ganado acumulado</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
@@ -194,7 +230,7 @@
     <numFmt numFmtId="166" formatCode="[$-240A]General"/>
     <numFmt numFmtId="167" formatCode="[$$-240A]#,##0.00;[Red]&quot;(&quot;[$$-240A]#,##0.00&quot;)&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +323,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +397,32 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -429,6 +513,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -454,7 +653,7 @@
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -588,6 +787,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -728,6 +1005,1134 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Valor planeado - Valor ganado</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Estadisticas!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valor planeado acumulado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Estadisticas!$G$25:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.19354838709677419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43548387096774199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7338709677419355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Estadisticas!$J$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valor ganado acumulado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Estadisticas!$J$25:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.12096774193548386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12096774193548386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12096774193548386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12096774193548386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="482263336"/>
+        <c:axId val="346937152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="482263336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346937152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="346937152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482263336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tareas"/>
+      <sheetName val="Semanas"/>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="26">
+          <cell r="D26">
+            <v>60</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1008,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,10 +3180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G13"/>
+  <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1901,17 +3306,305 @@
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
     </row>
+    <row r="17" spans="2:10" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="50">
+        <f>[1]Tareas!D20</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="48"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="52">
+        <f>[1]Tareas!D26</f>
+        <v>60</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+    </row>
+    <row r="24" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B24" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="64">
+        <v>1</v>
+      </c>
+      <c r="C25" s="65">
+        <v>42814</v>
+      </c>
+      <c r="D25" s="65">
+        <v>42820</v>
+      </c>
+      <c r="E25" s="66">
+        <f>SUMIFS(PlanIndividual!$D$9:$D$31,PlanIndividual!$E$9:$E$31,B25)/60</f>
+        <v>4</v>
+      </c>
+      <c r="F25" s="66">
+        <f>SUMIFS(PlanIndividual!$F$9:$F$31,PlanIndividual!$E$9:$E$31,B25)</f>
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="G25" s="67">
+        <f>F25</f>
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="H25" s="66">
+        <f>SUMIFS(PlanIndividual!$G$9:$G$31,PlanIndividual!$H$9:$H$31,B25)/60</f>
+        <v>2.9833333333333334</v>
+      </c>
+      <c r="I25" s="66">
+        <f>SUMIFS(PlanIndividual!$I$9:$I$31,PlanIndividual!$H$9:$H$31,B25)</f>
+        <v>0.12096774193548386</v>
+      </c>
+      <c r="J25" s="66">
+        <f>I25</f>
+        <v>0.12096774193548386</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="64">
+        <v>2</v>
+      </c>
+      <c r="C26" s="65">
+        <v>42821</v>
+      </c>
+      <c r="D26" s="65">
+        <v>42827</v>
+      </c>
+      <c r="E26" s="66">
+        <f>SUMIFS(PlanIndividual!$D$9:$D$31,PlanIndividual!$E$9:$E$31,B26)/60</f>
+        <v>5</v>
+      </c>
+      <c r="F26" s="66">
+        <f>SUMIFS(PlanIndividual!$F$9:$F$31,PlanIndividual!$E$9:$E$31,B26)</f>
+        <v>0.24193548387096778</v>
+      </c>
+      <c r="G26" s="67">
+        <f>G25+F26</f>
+        <v>0.43548387096774199</v>
+      </c>
+      <c r="H26" s="66">
+        <f>SUMIFS(PlanIndividual!$G$9:$G$31,PlanIndividual!$H$9:$H$31,B26)/60</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="66">
+        <f>SUMIFS(PlanIndividual!$I$9:$I$31,PlanIndividual!$H$9:$H$31,B26)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="66">
+        <f>J25+I26</f>
+        <v>0.12096774193548386</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="64">
+        <v>3</v>
+      </c>
+      <c r="C27" s="65">
+        <v>42828</v>
+      </c>
+      <c r="D27" s="65">
+        <v>42834</v>
+      </c>
+      <c r="E27" s="66">
+        <f>SUMIFS(PlanIndividual!$D$9:$D$31,PlanIndividual!$E$9:$E$31,B27)/60</f>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="F27" s="66">
+        <f>SUMIFS(PlanIndividual!$F$9:$F$31,PlanIndividual!$E$9:$E$31,B27)</f>
+        <v>0.29838709677419351</v>
+      </c>
+      <c r="G27" s="67">
+        <f t="shared" ref="G27:G28" si="0">G26+F27</f>
+        <v>0.7338709677419355</v>
+      </c>
+      <c r="H27" s="66">
+        <f>SUMIFS(PlanIndividual!$G$9:$G$31,PlanIndividual!$H$9:$H$31,B27)/60</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="66">
+        <f>SUMIFS(PlanIndividual!$I$9:$I$31,PlanIndividual!$H$9:$H$31,B27)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="66">
+        <f>J26+I27</f>
+        <v>0.12096774193548386</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="68">
+        <v>4</v>
+      </c>
+      <c r="C28" s="65">
+        <v>42835</v>
+      </c>
+      <c r="D28" s="65">
+        <v>42841</v>
+      </c>
+      <c r="E28" s="66">
+        <f>SUMIFS(PlanIndividual!$D$9:$D$31,PlanIndividual!$E$9:$E$31,B28)/60</f>
+        <v>5.5</v>
+      </c>
+      <c r="F28" s="66">
+        <f>SUMIFS(PlanIndividual!$F$9:$F$31,PlanIndividual!$E$9:$E$31,B28)</f>
+        <v>0.2661290322580645</v>
+      </c>
+      <c r="G28" s="67">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="66">
+        <f>SUMIFS(PlanIndividual!$G$9:$G$31,PlanIndividual!$H$9:$H$31,B28)/60</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="66">
+        <f>SUMIFS(PlanIndividual!$I$9:$I$31,PlanIndividual!$H$9:$H$31,B28)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="66">
+        <f>J27+I28</f>
+        <v>0.12096774193548386</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="66">
+        <f>SUM(E25:E28)</f>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="F29" s="70">
+        <f>SUM(F25:F28)</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70">
+        <f>SUM(H25:H28)</f>
+        <v>2.9833333333333334</v>
+      </c>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/Documentación/Ciclo2/TSP_PlaneaciónIndividual_LukasMesa.xlsx
+++ b/Documentación/Ciclo2/TSP_PlaneaciónIndividual_LukasMesa.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lukas\Mis Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lukas\Documentos\Ucaldas\Ingeniería De Software\II\Proyecto\Planeación\Ciclo 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="PlanIndividual" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">PlanIndividual!$K$9:$O$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PlanIndividual!$B$8:$I$32</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-240A]0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -752,6 +752,66 @@
     <xf numFmtId="166" fontId="3" fillId="8" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -791,27 +851,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,45 +865,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1008,7 +1008,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1047,7 +1047,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1161,7 +1160,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1193,7 +1191,7 @@
                   <c:v>0.43548387096774199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7338709677419355</c:v>
+                  <c:v>0.74193548387096775</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1202,6 +1200,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A406-4773-B9BB-1B9042B3288E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1281,7 +1284,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1310,18 +1312,23 @@
                   <c:v>0.12096774193548386</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12096774193548386</c:v>
+                  <c:v>0.35483870967741937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12096774193548386</c:v>
+                  <c:v>0.43548387096774194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12096774193548386</c:v>
+                  <c:v>0.43548387096774194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A406-4773-B9BB-1B9042B3288E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -1334,11 +1341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482263336"/>
-        <c:axId val="346937152"/>
+        <c:axId val="243950512"/>
+        <c:axId val="326138072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="482263336"/>
+        <c:axId val="243950512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1388,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346937152"/>
+        <c:crossAx val="326138072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1389,7 +1396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346937152"/>
+        <c:axId val="326138072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1447,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482263336"/>
+        <c:crossAx val="243950512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1454,7 +1461,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2094,7 +2100,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2122,14 +2134,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="26">
-          <cell r="D26">
-            <v>60</v>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>EKKO</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2224,6 +2241,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2259,6 +2293,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2413,88 +2464,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.19921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="11" width="10.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="10.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.8984375" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="1" customWidth="1"/>
-    <col min="17" max="1024" width="10.625" style="1" customWidth="1"/>
+    <col min="17" max="1024" width="10.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="5">
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43" t="s">
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="2:16" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+    </row>
+    <row r="8" spans="2:16" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -2520,8 +2571,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2564,8 +2615,8 @@
       </c>
       <c r="P9"/>
     </row>
-    <row r="10" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
+    <row r="10" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="57"/>
       <c r="C10" s="4" t="s">
         <v>51</v>
       </c>
@@ -2596,7 +2647,7 @@
       <c r="O10"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="2:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
@@ -2613,11 +2664,15 @@
         <f t="shared" si="0"/>
         <v>7.2580645161290328E-2</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="G11" s="16">
+        <v>108</v>
+      </c>
+      <c r="H11" s="17">
+        <v>2</v>
+      </c>
       <c r="I11" s="15">
         <f>IF(H11&gt;0,F11,0)</f>
-        <v>0</v>
+        <v>7.2580645161290328E-2</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
@@ -2626,8 +2681,8 @@
       <c r="O11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="55" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2660,8 +2715,8 @@
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="56"/>
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
@@ -2675,11 +2730,15 @@
         <f t="shared" si="0"/>
         <v>4.8387096774193547E-2</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="12">
+        <v>15</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2</v>
+      </c>
       <c r="I13" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8387096774193547E-2</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
@@ -2688,8 +2747,8 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="56"/>
       <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
@@ -2710,8 +2769,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="57"/>
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
@@ -2732,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -2749,15 +2808,19 @@
         <f t="shared" si="0"/>
         <v>2.4193548387096774E-2</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="4">
+        <v>35</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3</v>
+      </c>
       <c r="I16" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
+        <v>2.4193548387096774E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="58" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2780,8 +2843,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="59"/>
       <c r="C18" s="19" t="s">
         <v>23</v>
       </c>
@@ -2802,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>34</v>
       </c>
@@ -2813,7 +2876,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="0"/>
@@ -2826,8 +2889,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="35" t="s">
+    <row r="20" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="55" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -2843,15 +2906,19 @@
         <f t="shared" si="0"/>
         <v>2.4193548387096774E-2</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="22"/>
+      <c r="G20" s="20">
+        <v>40</v>
+      </c>
+      <c r="H20" s="22">
+        <v>2</v>
+      </c>
       <c r="I20" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
+        <v>2.4193548387096774E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="56"/>
       <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
@@ -2865,15 +2932,19 @@
         <f t="shared" si="0"/>
         <v>2.4193548387096774E-2</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="11"/>
+      <c r="G21" s="4">
+        <v>20</v>
+      </c>
+      <c r="H21" s="11">
+        <v>2</v>
+      </c>
       <c r="I21" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
+        <v>2.4193548387096774E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="56"/>
       <c r="C22" s="4" t="s">
         <v>29</v>
       </c>
@@ -2887,15 +2958,19 @@
         <f t="shared" ref="F22" si="2">D22/$D$32</f>
         <v>2.0161290322580645E-2</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="11"/>
+      <c r="G22" s="4">
+        <v>55</v>
+      </c>
+      <c r="H22" s="11">
+        <v>2</v>
+      </c>
       <c r="I22" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
+        <v>2.0161290322580645E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="56"/>
       <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
@@ -2909,15 +2984,19 @@
         <f t="shared" ref="F23:F31" si="3">D23/$D$32</f>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="4">
+        <v>35</v>
+      </c>
+      <c r="H23" s="11">
+        <v>3</v>
+      </c>
       <c r="I23" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="56"/>
       <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
@@ -2931,15 +3010,19 @@
         <f t="shared" si="3"/>
         <v>2.4193548387096774E-2</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="11"/>
+      <c r="G24" s="4">
+        <v>75</v>
+      </c>
+      <c r="H24" s="11">
+        <v>3</v>
+      </c>
       <c r="I24" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
+        <v>2.4193548387096774E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="56"/>
       <c r="C25" s="4" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3043,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="57"/>
       <c r="C26" s="24" t="s">
         <v>33</v>
       </c>
@@ -2982,8 +3065,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="54" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2999,15 +3082,19 @@
         <f t="shared" si="3"/>
         <v>2.4193548387096774E-2</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="4">
+        <v>32</v>
+      </c>
+      <c r="H27" s="11">
+        <v>2</v>
+      </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
+        <v>2.4193548387096774E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="54"/>
       <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
@@ -3021,15 +3108,19 @@
         <f t="shared" si="3"/>
         <v>2.0161290322580645E-2</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="11"/>
+      <c r="G28" s="4">
+        <v>20</v>
+      </c>
+      <c r="H28" s="11">
+        <v>2</v>
+      </c>
       <c r="I28" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="34"/>
+        <v>2.0161290322580645E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="54"/>
       <c r="C29" s="4" t="s">
         <v>31</v>
       </c>
@@ -3037,7 +3128,7 @@
         <v>40</v>
       </c>
       <c r="E29" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" s="10">
         <f t="shared" si="3"/>
@@ -3050,8 +3141,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="34"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="54"/>
       <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
@@ -3072,8 +3163,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="34"/>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="54"/>
       <c r="C31" s="4" t="s">
         <v>33</v>
       </c>
@@ -3094,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="28" t="s">
         <v>52</v>
       </c>
@@ -3110,49 +3201,49 @@
       </c>
       <c r="G32" s="33">
         <f>SUM(G9:G31)</f>
-        <v>179</v>
+        <v>614</v>
       </c>
       <c r="H32" s="29"/>
       <c r="I32" s="32">
         <f>SUM(I9:I31)</f>
-        <v>0.12096774193548386</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.43548387096774177</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F36" s="23"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F37" s="23"/>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J44" s="26"/>
       <c r="K44" s="26"/>
     </row>
@@ -3182,28 +3273,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="7" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" customWidth="1"/>
+    <col min="3" max="7" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="2:7" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>36</v>
       </c>
@@ -3212,7 +3303,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
         <v>37</v>
       </c>
@@ -3221,7 +3312,7 @@
         <v>20.666666666666668</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>38</v>
       </c>
@@ -3230,7 +3321,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
         <v>39</v>
       </c>
@@ -3248,7 +3339,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
@@ -3262,15 +3353,15 @@
       </c>
       <c r="E9" s="29">
         <f>SUMIF(PlanIndividual!$E$9:$E$31,E8,PlanIndividual!$D$9:$D$31)</f>
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F9" s="29">
         <f>SUMIF(PlanIndividual!$E$9:$E$31,F8,PlanIndividual!$D$9:$D$31)</f>
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
@@ -3284,311 +3375,311 @@
       </c>
       <c r="E10" s="30">
         <f>E9/60</f>
-        <v>6.166666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F10" s="30">
         <f>F9/60</f>
-        <v>5.5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="G10" s="26"/>
     </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
     </row>
-    <row r="13" spans="2:7" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45" t="str">
+    <row r="13" spans="2:7" ht="56.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="65" t="str">
         <f>IF(C5&gt; (PlanIndividual!H5*4),"Revise su plan, debe programar menos horas, ya que la cantidad total supera al total de las que se planean trabajar",CONCATENATE("Todo se encuentra en orden, tiene esta cantidad de horas restantes:  ", ((PlanIndividual!H5*4)- C5)))</f>
         <v>Todo se encuentra en orden, tiene esta cantidad de horas restantes:  1,33333333333333</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="17" spans="2:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="46" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+    </row>
+    <row r="17" spans="2:10" ht="25.8" x14ac:dyDescent="0.25">
+      <c r="B17" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="49" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B19" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="50">
-        <f>[1]Tareas!D20</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="48"/>
-    </row>
-    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="49" t="s">
+      <c r="C19" s="37" t="str">
+        <f>[1]Tareas!C4</f>
+        <v>EKKO</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B20" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="52">
-        <f>[1]Tareas!D26</f>
+      <c r="C20" s="39">
+        <f>[1]Tareas!C10</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="70"/>
+      <c r="J23" s="71"/>
+    </row>
+    <row r="24" spans="2:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B24" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-    </row>
-    <row r="24" spans="2:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="B24" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="60" t="s">
+      <c r="G24" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="63" t="s">
+      <c r="I24" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="64">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="46">
         <v>1</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="47">
         <v>42814</v>
       </c>
-      <c r="D25" s="65">
+      <c r="D25" s="47">
         <v>42820</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="48">
         <f>SUMIFS(PlanIndividual!$D$9:$D$31,PlanIndividual!$E$9:$E$31,B25)/60</f>
         <v>4</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="48">
         <f>SUMIFS(PlanIndividual!$F$9:$F$31,PlanIndividual!$E$9:$E$31,B25)</f>
         <v>0.19354838709677419</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="49">
         <f>F25</f>
         <v>0.19354838709677419</v>
       </c>
-      <c r="H25" s="66">
+      <c r="H25" s="48">
         <f>SUMIFS(PlanIndividual!$G$9:$G$31,PlanIndividual!$H$9:$H$31,B25)/60</f>
         <v>2.9833333333333334</v>
       </c>
-      <c r="I25" s="66">
+      <c r="I25" s="48">
         <f>SUMIFS(PlanIndividual!$I$9:$I$31,PlanIndividual!$H$9:$H$31,B25)</f>
         <v>0.12096774193548386</v>
       </c>
-      <c r="J25" s="66">
+      <c r="J25" s="48">
         <f>I25</f>
         <v>0.12096774193548386</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="64">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="46">
         <v>2</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="47">
         <v>42821</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="47">
         <v>42827</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="48">
         <f>SUMIFS(PlanIndividual!$D$9:$D$31,PlanIndividual!$E$9:$E$31,B26)/60</f>
         <v>5</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="48">
         <f>SUMIFS(PlanIndividual!$F$9:$F$31,PlanIndividual!$E$9:$E$31,B26)</f>
         <v>0.24193548387096778</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="49">
         <f>G25+F26</f>
         <v>0.43548387096774199</v>
       </c>
-      <c r="H26" s="66">
+      <c r="H26" s="48">
         <f>SUMIFS(PlanIndividual!$G$9:$G$31,PlanIndividual!$H$9:$H$31,B26)/60</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="66">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="I26" s="48">
         <f>SUMIFS(PlanIndividual!$I$9:$I$31,PlanIndividual!$H$9:$H$31,B26)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="66">
+        <v>0.23387096774193553</v>
+      </c>
+      <c r="J26" s="48">
         <f>J25+I26</f>
-        <v>0.12096774193548386</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="64">
+        <v>0.35483870967741937</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="46">
         <v>3</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="47">
         <v>42828</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="47">
         <v>42834</v>
       </c>
-      <c r="E27" s="66">
+      <c r="E27" s="48">
         <f>SUMIFS(PlanIndividual!$D$9:$D$31,PlanIndividual!$E$9:$E$31,B27)/60</f>
-        <v>6.166666666666667</v>
-      </c>
-      <c r="F27" s="66">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F27" s="48">
         <f>SUMIFS(PlanIndividual!$F$9:$F$31,PlanIndividual!$E$9:$E$31,B27)</f>
-        <v>0.29838709677419351</v>
-      </c>
-      <c r="G27" s="67">
+        <v>0.30645161290322576</v>
+      </c>
+      <c r="G27" s="49">
         <f t="shared" ref="G27:G28" si="0">G26+F27</f>
-        <v>0.7338709677419355</v>
-      </c>
-      <c r="H27" s="66">
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="H27" s="48">
         <f>SUMIFS(PlanIndividual!$G$9:$G$31,PlanIndividual!$H$9:$H$31,B27)/60</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="66">
+        <v>2.4166666666666665</v>
+      </c>
+      <c r="I27" s="48">
         <f>SUMIFS(PlanIndividual!$I$9:$I$31,PlanIndividual!$H$9:$H$31,B27)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="66">
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="J27" s="48">
         <f>J26+I27</f>
-        <v>0.12096774193548386</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="68">
+        <v>0.43548387096774194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="50">
         <v>4</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="47">
         <v>42835</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="47">
         <v>42841</v>
       </c>
-      <c r="E28" s="66">
+      <c r="E28" s="48">
         <f>SUMIFS(PlanIndividual!$D$9:$D$31,PlanIndividual!$E$9:$E$31,B28)/60</f>
-        <v>5.5</v>
-      </c>
-      <c r="F28" s="66">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F28" s="48">
         <f>SUMIFS(PlanIndividual!$F$9:$F$31,PlanIndividual!$E$9:$E$31,B28)</f>
-        <v>0.2661290322580645</v>
-      </c>
-      <c r="G28" s="67">
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="G28" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H28" s="66">
+      <c r="H28" s="48">
         <f>SUMIFS(PlanIndividual!$G$9:$G$31,PlanIndividual!$H$9:$H$31,B28)/60</f>
         <v>0</v>
       </c>
-      <c r="I28" s="66">
+      <c r="I28" s="48">
         <f>SUMIFS(PlanIndividual!$I$9:$I$31,PlanIndividual!$H$9:$H$31,B28)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="66">
+      <c r="J28" s="48">
         <f>J27+I28</f>
-        <v>0.12096774193548386</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="69" t="s">
+        <v>0.43548387096774194</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="48">
         <f>SUM(E25:E28)</f>
-        <v>20.666666666666668</v>
-      </c>
-      <c r="F29" s="70">
+        <v>20.666666666666664</v>
+      </c>
+      <c r="F29" s="52">
         <f>SUM(F25:F28)</f>
         <v>1</v>
       </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70">
+      <c r="G29" s="52"/>
+      <c r="H29" s="52">
         <f>SUM(H25:H28)</f>
-        <v>2.9833333333333334</v>
-      </c>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
+        <v>10.233333333333333</v>
+      </c>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
